--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualLibs\CitiesSkyline2-CheatOverhaul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8B24190-36A1-4B88-BA23-81DB48B58B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D1452-7A05-4EED-9780-BADF7E4D7862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{116A3F16-CC07-45A2-ABED-83473C9479E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{116A3F16-CC07-45A2-ABED-83473C9479E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,139 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
-  <si>
-    <t xml:space="preserve">parcs en recreation </t>
-  </si>
-  <si>
-    <t>parc maint depot 01</t>
-  </si>
-  <si>
-    <t>small parc city parc 01</t>
-  </si>
-  <si>
-    <t>small plaza 02</t>
-  </si>
-  <si>
-    <t>small playground 01</t>
-  </si>
-  <si>
-    <t>dogparc 01</t>
-  </si>
-  <si>
-    <t>campfire site 01</t>
-  </si>
-  <si>
-    <t>large parcs</t>
-  </si>
-  <si>
-    <t>large cityparc 03</t>
-  </si>
-  <si>
-    <t>large plaza 04</t>
-  </si>
-  <si>
-    <t>large playground 02</t>
-  </si>
-  <si>
-    <t>sport parcs</t>
-  </si>
-  <si>
-    <t>tenniscourt 01</t>
-  </si>
-  <si>
-    <t>outdoor gym 01</t>
-  </si>
-  <si>
-    <t>skateparc 01</t>
-  </si>
-  <si>
-    <t>basket court 01</t>
-  </si>
-  <si>
-    <t>large sportspark</t>
-  </si>
-  <si>
-    <t>american footballfield 01</t>
-  </si>
-  <si>
-    <t>sockerfield footballfield 01</t>
-  </si>
-  <si>
-    <t>community pool 01</t>
-  </si>
-  <si>
-    <t>tourist attrac</t>
-  </si>
-  <si>
-    <t>observation tower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bronze statue 01 </t>
-  </si>
-  <si>
-    <t>waterparc 01</t>
-  </si>
-  <si>
-    <t>medival old castle 01</t>
-  </si>
-  <si>
-    <t>landmarks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nasinn eula </t>
-  </si>
-  <si>
-    <t>grand hotel 01</t>
-  </si>
-  <si>
-    <t>feriswheel 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nat gallery of art </t>
-  </si>
-  <si>
-    <t>notre dame</t>
-  </si>
-  <si>
-    <t>sung nye mun gate</t>
-  </si>
-  <si>
-    <t>botanical garden 01</t>
-  </si>
-  <si>
-    <t>the national diet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xiambelltower </t>
-  </si>
-  <si>
-    <t>communications</t>
-  </si>
-  <si>
-    <t>postmailbox 01</t>
-  </si>
-  <si>
-    <t>post office 01</t>
-  </si>
-  <si>
-    <t>post sorting facc 01</t>
-  </si>
-  <si>
-    <t>telecom</t>
-  </si>
-  <si>
-    <t>radiomast 01</t>
-  </si>
-  <si>
-    <t>serverfarm 01</t>
-  </si>
-  <si>
-    <t>telecom tower 01</t>
-  </si>
-  <si>
-    <t>sattelite uplink 01</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="102">
   <si>
     <t>TransportDepot</t>
   </si>
@@ -233,6 +101,237 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>WaterPumpingStation01"</t>
+  </si>
+  <si>
+    <t>GroundwaterPumpingStation01"</t>
+  </si>
+  <si>
+    <t>DesalinationPlant01"</t>
+  </si>
+  <si>
+    <t>WaterTower01"</t>
+  </si>
+  <si>
+    <t>TransformerStation01"</t>
+  </si>
+  <si>
+    <t>ServerFarm01"</t>
+  </si>
+  <si>
+    <t>ParkingHall01"</t>
+  </si>
+  <si>
+    <t>ParkingHall02"</t>
+  </si>
+  <si>
+    <t>CityPark01"</t>
+  </si>
+  <si>
+    <t>CityPark02"</t>
+  </si>
+  <si>
+    <t>Playground01"</t>
+  </si>
+  <si>
+    <t>DogPark01"</t>
+  </si>
+  <si>
+    <t>CampireSite01"</t>
+  </si>
+  <si>
+    <t>CityPark03"</t>
+  </si>
+  <si>
+    <t>CityPark04"</t>
+  </si>
+  <si>
+    <t>Playground02"</t>
+  </si>
+  <si>
+    <t>TennisCourt01"</t>
+  </si>
+  <si>
+    <t>GymPark01"</t>
+  </si>
+  <si>
+    <t>SkatePark01"</t>
+  </si>
+  <si>
+    <t>BasketballCourt01"</t>
+  </si>
+  <si>
+    <t>AmericanFootballField01"</t>
+  </si>
+  <si>
+    <t>FootballField01"</t>
+  </si>
+  <si>
+    <t>CommunityPool01"</t>
+  </si>
+  <si>
+    <t>ObservationTower01"</t>
+  </si>
+  <si>
+    <t>BronzeStatue01"</t>
+  </si>
+  <si>
+    <t>WaterPark01"</t>
+  </si>
+  <si>
+    <t>OldCastle01"</t>
+  </si>
+  <si>
+    <t>WastewaterTreatmentPlant01"</t>
+  </si>
+  <si>
+    <t>SewageOutlet01"</t>
+  </si>
+  <si>
+    <t>IncinerationPlant01"</t>
+  </si>
+  <si>
+    <t>Landfill01"</t>
+  </si>
+  <si>
+    <t>RecyclingCenter01"</t>
+  </si>
+  <si>
+    <t>HazardousWasteProcessingSite01"</t>
+  </si>
+  <si>
+    <t>MedicalClinic01"</t>
+  </si>
+  <si>
+    <t>Hospital01"</t>
+  </si>
+  <si>
+    <t>PostOffice01"</t>
+  </si>
+  <si>
+    <t>Cemetery01"</t>
+  </si>
+  <si>
+    <t>Crematorium01"</t>
+  </si>
+  <si>
+    <t>WindTurbine01"</t>
+  </si>
+  <si>
+    <t>EmergencyBatteryStation01"</t>
+  </si>
+  <si>
+    <t>GeothermalPowerPlant01"</t>
+  </si>
+  <si>
+    <t>SolarPowerStation01"</t>
+  </si>
+  <si>
+    <t>FireStation01"</t>
+  </si>
+  <si>
+    <t>FireHouse01"</t>
+  </si>
+  <si>
+    <t>FireHelicopterDepot01"</t>
+  </si>
+  <si>
+    <t>FirewatchtTower01"</t>
+  </si>
+  <si>
+    <t>PoliceHeadquarters01"</t>
+  </si>
+  <si>
+    <t>PoliceStation01"</t>
+  </si>
+  <si>
+    <t>Prison01"</t>
+  </si>
+  <si>
+    <t>DiseaseControlCenter01"</t>
+  </si>
+  <si>
+    <t>HeathResearchInstitute01"</t>
+  </si>
+  <si>
+    <t>RadioTelescope01"</t>
+  </si>
+  <si>
+    <t>GeologicalResearchCenter01"</t>
+  </si>
+  <si>
+    <t>TechnicalUniversity01"</t>
+  </si>
+  <si>
+    <t>EarlyDisasterWarningSystem01"</t>
+  </si>
+  <si>
+    <t>WelfareOffice01"</t>
+  </si>
+  <si>
+    <t>CityHall01"</t>
+  </si>
+  <si>
+    <t>LargeEmergencyShelter01"</t>
+  </si>
+  <si>
+    <t>CentralBank01"</t>
+  </si>
+  <si>
+    <t>MedicalUniversity01"</t>
+  </si>
+  <si>
+    <t>LargeHadronCollider01"</t>
+  </si>
+  <si>
+    <t>BusDepot01"</t>
+  </si>
+  <si>
+    <t>TaxiDepot01"</t>
+  </si>
+  <si>
+    <t>RailYard01"</t>
+  </si>
+  <si>
+    <t>TramDepot01"</t>
+  </si>
+  <si>
+    <t>SubwayYard01"</t>
+  </si>
+  <si>
+    <t>BusStation01"</t>
+  </si>
+  <si>
+    <t>TrainStation01"</t>
+  </si>
+  <si>
+    <t>CargoTrainTerminal01"</t>
+  </si>
+  <si>
+    <t>SubwayStation01"</t>
+  </si>
+  <si>
+    <t>SubwayStation02"</t>
+  </si>
+  <si>
+    <t>Harbor01"</t>
+  </si>
+  <si>
+    <t>CargoHarbor01"</t>
+  </si>
+  <si>
+    <t>Airport01"</t>
+  </si>
+  <si>
+    <t>InternationalAirport01"</t>
+  </si>
+  <si>
+    <t>SpaceCenter01"</t>
+  </si>
+  <si>
+    <t>TODO Extentions</t>
   </si>
 </sst>
 </file>
@@ -273,11 +372,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -595,286 +691,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34271741-7480-4D3C-8BF0-DC30A00DBD58}">
-  <dimension ref="A6:A66"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>1</v>
+      <c r="A8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
+      <c r="A10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
+      <c r="A11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
+      <c r="A12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
+      <c r="A18" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
+      <c r="A20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
+      <c r="A22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
+      <c r="A24" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="2" t="s">
-        <v>13</v>
+      <c r="A25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
+      <c r="A26" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
+      <c r="A27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
+      <c r="A29" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>17</v>
+      <c r="A30" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="2" t="s">
-        <v>18</v>
+      <c r="A31" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
-        <v>19</v>
+      <c r="A32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>20</v>
+      <c r="A35" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="2" t="s">
-        <v>21</v>
+      <c r="A37" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>22</v>
+      <c r="A38" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="2" t="s">
-        <v>23</v>
+      <c r="A39" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
-        <v>24</v>
+      <c r="A40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="1"/>
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2" t="s">
-        <v>25</v>
+      <c r="A42" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1"/>
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="2" t="s">
-        <v>26</v>
+      <c r="A44" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2" t="s">
-        <v>27</v>
+      <c r="A45" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="2" t="s">
-        <v>28</v>
+      <c r="A46" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2" t="s">
-        <v>29</v>
+      <c r="A47" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2" t="s">
-        <v>30</v>
+      <c r="A48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
-        <v>31</v>
+      <c r="A49" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
-        <v>32</v>
+      <c r="A50" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
-        <v>33</v>
+      <c r="A51" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="2" t="s">
-        <v>34</v>
+      <c r="A52" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="1"/>
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="1"/>
+      <c r="A54" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2" t="s">
-        <v>35</v>
+      <c r="A55" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
+      <c r="A56" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="2" t="s">
-        <v>36</v>
+      <c r="A57" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="2" t="s">
-        <v>37</v>
+      <c r="A58" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
-        <v>38</v>
+      <c r="A59" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="1"/>
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2" t="s">
-        <v>39</v>
+      <c r="A61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="1"/>
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2" t="s">
-        <v>40</v>
+      <c r="A63" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="2" t="s">
-        <v>41</v>
+      <c r="A64" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="2" t="s">
-        <v>42</v>
+      <c r="A65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="2" t="s">
-        <v>43</v>
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -884,9 +1094,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208DC106-C072-4623-9EB1-6D3EBEF92953}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -900,22 +1110,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>63</v>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -923,7 +1133,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0.01</v>
@@ -931,10 +1141,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>100000</v>
@@ -948,7 +1158,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>30000</v>
@@ -962,7 +1172,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>5000</v>
@@ -976,7 +1186,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>6300</v>
@@ -990,10 +1200,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -1001,10 +1211,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>800000</v>
@@ -1012,10 +1222,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -1026,10 +1236,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -1040,10 +1250,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>0.05</v>
@@ -1057,7 +1267,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>0.03</v>
@@ -1065,7 +1275,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>0.1</v>
@@ -1076,7 +1286,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D15">
         <v>0.1</v>
@@ -1087,7 +1297,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0.1</v>
@@ -1095,10 +1305,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>60</v>
